--- a/Excel/卡牌.xlsx
+++ b/Excel/卡牌.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\TheLoop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BBA051-B803-4F93-9CBA-AF128AE1A149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459BE82-04DF-43E2-923B-069BBFB3775F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3240" yWindow="4308" windowWidth="23040" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4896" yWindow="4788" windowWidth="23040" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,6 +479,48 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
